--- a/biology/Zoologie/Fadet_des_Balkans/Fadet_des_Balkans.xlsx
+++ b/biology/Zoologie/Fadet_des_Balkans/Fadet_des_Balkans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coenonympha rhodopensis
 Le Fadet des Balkans (Coenonympha rhodopensis) est un papillon appartenant à la famille des Nymphalidae à la sous-famille des Satyrinae et au genre  Coenonympha.
@@ -512,12 +524,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Coenonympha rhodopensis a été nommé par Henry John Elwes en 1900[1].
-Est une espèce à part entière après avoir été considérée comme une sous-espèce de Coenonympha tullia[2].
-Noms vernaculaires
-Le Fadet des Balkans se nomme Eastern Large Heath en anglais[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coenonympha rhodopensis a été nommé par Henry John Elwes en 1900.
+Est une espèce à part entière après avoir été considérée comme une sous-espèce de Coenonympha tullia.
 </t>
         </is>
       </c>
@@ -543,13 +555,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ce petit papillon de couleur jaune orangé présente de discrets ocelles foncés aveugles, un à l'apex des antérieures, une ligne d'ocelles vestigiaux sous forme de petits points aux postérieures.
-Le revers est aux antérieures de la même couleur jaune orangé avec à l'apex un ocelle noir pupillé de blanc cerclé de jaune et d'autres ocelles dont aux postérieures de couleurs grisée une ligne de points postdicaux et une tache claire en e4 et e5.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Fadet des Balkans se nomme Eastern Large Heath en anglais.
 </t>
         </is>
       </c>
@@ -575,15 +592,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il vole en une génération, de mi juin à fin juillet[3].
-Plantes hôtes
-Ses plantes hôtes sont des graminées.
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce petit papillon de couleur jaune orangé présente de discrets ocelles foncés aveugles, un à l'apex des antérieures, une ligne d'ocelles vestigiaux sous forme de petits points aux postérieures.
+Le revers est aux antérieures de la même couleur jaune orangé avec à l'apex un ocelle noir pupillé de blanc cerclé de jaune et d'autres ocelles dont aux postérieures de couleurs grisée une ligne de points postdicaux et une tache claire en e4 et e5.
 </t>
         </is>
       </c>
@@ -609,16 +626,162 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole en une génération, de mi juin à fin juillet.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fadet_des_Balkans</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fadet_des_Balkans</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses plantes hôtes sont des graminées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Fadet_des_Balkans</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fadet_des_Balkans</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent sous forme de petits isolats en Italie, Slovénie, Croatie, Serbie, Macédoine, Roumanie, Bulgarie, Albanie et dans le nord de la Grèce[1],[3].
-Biotope
-Il réside dans des lieux herbus, des prairies subalpines.
-Protection
-Pas de statut de protection particulier.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent sous forme de petits isolats en Italie, Slovénie, Croatie, Serbie, Macédoine, Roumanie, Bulgarie, Albanie et dans le nord de la Grèce,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Fadet_des_Balkans</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fadet_des_Balkans</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans des lieux herbus, des prairies subalpines.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Fadet_des_Balkans</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fadet_des_Balkans</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
